--- a/11c/7_2024_01_23_dogak/stat.xlsx
+++ b/11c/7_2024_01_23_dogak/stat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\OneDrive\Desktop\bullshitBundle\kossuthrepo\11c\7_2024_01_23_dogak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185D2F0B-647D-45CC-A3C0-C756A51B7348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31195FF1-1C87-42B8-86CF-02AC14AD488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{7FC3744B-7F1E-4802-8B42-CB720907580A}"/>
   </bookViews>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6969A97-CE2A-4FD1-B84F-9CB86835F854}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -699,23 +699,23 @@
         <v>2.5</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H26" si="0">SUM(C3:G3)</f>
-        <v>12.5</v>
+        <f>SUM(C3:G3)</f>
+        <v>9.5</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I26" si="1">IF(H3&lt;=6,1,IF(AND(H3&gt;6,H3&lt;=13),2,IF(AND(H3&gt;13,H3&lt;=20),3,IF(AND(H3&gt;20,H3&lt;=28),4,5))))</f>
+        <f>IF(H3&lt;=6,1,IF(AND(H3&gt;6,H3&lt;=13),2,IF(AND(H3&gt;13,H3&lt;=20),3,IF(AND(H3&gt;20,H3&lt;=28),4,5))))</f>
         <v>2</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -728,322 +728,295 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <f>SUM(C4:G4)</f>
         <v>5.5</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
       <c r="I4" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(H4&lt;=6,1,IF(AND(H4&gt;6,H4&lt;=13),2,IF(AND(H4&gt;13,H4&lt;=20),3,IF(AND(H4&gt;20,H4&lt;=28),4,5))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="0"/>
-        <v>20.5</v>
+        <f>SUM(C6:G6)</f>
+        <v>18</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>IF(H6&lt;=6,1,IF(AND(H6&gt;6,H6&lt;=13),2,IF(AND(H6&gt;13,H6&lt;=20),3,IF(AND(H6&gt;20,H6&lt;=28),4,5))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>SUM(C7:G7)</f>
+        <v>15</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(H7&lt;=6,1,IF(AND(H7&gt;6,H7&lt;=13),2,IF(AND(H7&gt;13,H7&lt;=20),3,IF(AND(H7&gt;20,H7&lt;=28),4,5))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
+        <f>SUM(C8:G8)</f>
+        <v>10.5</v>
       </c>
       <c r="I8" s="5">
-        <v>3</v>
+        <f>IF(H8&lt;=6,1,IF(AND(H8&gt;6,H8&lt;=13),2,IF(AND(H8&gt;13,H8&lt;=20),3,IF(AND(H8&gt;20,H8&lt;=28),4,5))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(C9:G9)</f>
+        <v>14.5</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>IF(H9&lt;=6,1,IF(AND(H9&gt;6,H9&lt;=13),2,IF(AND(H9&gt;13,H9&lt;=20),3,IF(AND(H9&gt;20,H9&lt;=28),4,5))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6.5</v>
-      </c>
       <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f>SUM(C10:G10)</f>
+        <v>11</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>IF(H10&lt;=6,1,IF(AND(H10&gt;6,H10&lt;=13),2,IF(AND(H10&gt;13,H10&lt;=20),3,IF(AND(H10&gt;20,H10&lt;=28),4,5))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f>SUM(C12:G12)</f>
+        <v>14</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(H12&lt;=6,1,IF(AND(H12&gt;6,H12&lt;=13),2,IF(AND(H12&gt;13,H12&lt;=20),3,IF(AND(H12&gt;20,H12&lt;=28),4,5))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(C13:G13)</f>
+        <v>20.5</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>IF(H13&lt;=6,1,IF(AND(H13&gt;6,H13&lt;=13),2,IF(AND(H13&gt;13,H13&lt;=20),3,IF(AND(H13&gt;20,H13&lt;=28),4,5))))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1058,73 +1031,73 @@
         <v>6.5</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(C14:G14)</f>
+        <v>6.5</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(H14&lt;=6,1,IF(AND(H14&gt;6,H14&lt;=13),2,IF(AND(H14&gt;13,H14&lt;=20),3,IF(AND(H14&gt;20,H14&lt;=28),4,5))))</f>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>SUM(C15:G15)</f>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(H15&lt;=6,1,IF(AND(H15&gt;6,H15&lt;=13),2,IF(AND(H15&gt;13,H15&lt;=20),3,IF(AND(H15&gt;20,H15&lt;=28),4,5))))</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>SUM(C16:G16)</f>
+        <v>7</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(H16&lt;=6,1,IF(AND(H16&gt;6,H16&lt;=13),2,IF(AND(H16&gt;13,H16&lt;=20),3,IF(AND(H16&gt;20,H16&lt;=28),4,5))))</f>
         <v>2</v>
       </c>
     </row>
@@ -1151,119 +1124,105 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:G17)</f>
         <v>7</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(H17&lt;=6,1,IF(AND(H17&gt;6,H17&lt;=13),2,IF(AND(H17&gt;13,H17&lt;=20),3,IF(AND(H17&gt;20,H17&lt;=28),4,5))))</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(C18:G18)</f>
+        <v>8.5</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>IF(H18&lt;=6,1,IF(AND(H18&gt;6,H18&lt;=13),2,IF(AND(H18&gt;13,H18&lt;=20),3,IF(AND(H18&gt;20,H18&lt;=28),4,5))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H19" s="5">
+        <f>SUM(C19:G19)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I19" s="5">
+        <f>IF(H19&lt;=6,1,IF(AND(H19&gt;6,H19&lt;=13),2,IF(AND(H19&gt;13,H19&lt;=20),3,IF(AND(H19&gt;20,H19&lt;=28),4,5))))</f>
         <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="C20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1272,88 +1231,88 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
+        <f>SUM(C21:G21)</f>
+        <v>6</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>IF(H21&lt;=6,1,IF(AND(H21&gt;6,H21&lt;=13),2,IF(AND(H21&gt;13,H21&lt;=20),3,IF(AND(H21&gt;20,H21&lt;=28),4,5))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
+        <f>SUM(C22:G22)</f>
+        <v>17.5</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>IF(H22&lt;=6,1,IF(AND(H22&gt;6,H22&lt;=13),2,IF(AND(H22&gt;13,H22&lt;=20),3,IF(AND(H22&gt;20,H22&lt;=28),4,5))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <v>6.5</v>
       </c>
-      <c r="D23" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4</v>
-      </c>
       <c r="H23" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>SUM(C23:G23)</f>
+        <v>8</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>IF(H23&lt;=6,1,IF(AND(H23&gt;6,H23&lt;=13),2,IF(AND(H23&gt;13,H23&lt;=20),3,IF(AND(H23&gt;20,H23&lt;=28),4,5))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1362,54 +1321,39 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>6</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(C24:G24)</f>
+        <v>13.5</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>4</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="C25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
@@ -1418,93 +1362,149 @@
         <v>2.5</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
+        <f>SUM(C26:G26)</f>
+        <v>12.5</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(H26&lt;=6,1,IF(AND(H26&gt;6,H26&lt;=13),2,IF(AND(H26&gt;13,H26&lt;=20),3,IF(AND(H26&gt;20,H26&lt;=28),4,5))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H27" s="5">
+        <f>SUM(C27:G27)</f>
+        <v>17.5</v>
+      </c>
+      <c r="I27" s="5">
+        <f>IF(H27&lt;=6,1,IF(AND(H27&gt;6,H27&lt;=13),2,IF(AND(H27&gt;13,H27&lt;=20),3,IF(AND(H27&gt;20,H27&lt;=28),4,5))))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="C28" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H28" s="5">
+        <f>SUM(C28:G28)</f>
+        <v>12</v>
+      </c>
+      <c r="I28" s="5">
+        <f>IF(H28&lt;=6,1,IF(AND(H28&gt;6,H28&lt;=13),2,IF(AND(H28&gt;13,H28&lt;=20),3,IF(AND(H28&gt;20,H28&lt;=28),4,5))))</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="5">
+        <f>SUM(C29:G29)</f>
+        <v>7.5</v>
+      </c>
+      <c r="I29" s="5">
+        <f>IF(H29&lt;=6,1,IF(AND(H29&gt;6,H29&lt;=13),2,IF(AND(H29&gt;13,H29&lt;=20),3,IF(AND(H29&gt;20,H29&lt;=28),4,5))))</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H30" s="5">
+        <f>SUM(C30:G30)</f>
+        <v>10.5</v>
+      </c>
+      <c r="I30" s="5">
+        <f>IF(H30&lt;=6,1,IF(AND(H30&gt;6,H30&lt;=13),2,IF(AND(H30&gt;13,H30&lt;=20),3,IF(AND(H30&gt;20,H30&lt;=28),4,5))))</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
@@ -1538,6 +1538,9 @@
       <c r="C35" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I30">
+    <sortCondition ref="A2:A30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>